--- a/Data/inspection-score-card.xlsx
+++ b/Data/inspection-score-card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonm/Dropbox (APSU GIS)/Projects (DB)/Dissertation/3DP_Experiments/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E067FB8-BC66-F14A-BC4D-47151F863DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505AD540-80EB-DC48-932E-12885FE9E1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="32620" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="32620" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CR-6 SE" sheetId="2" r:id="rId1"/>
@@ -1990,10 +1990,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:P90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2015,8 +2015,8 @@
     <col min="15" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
@@ -2033,8 +2033,8 @@
       <c r="L2" s="51"/>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>13</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53"/>
       <c r="B5" s="55"/>
       <c r="C5" s="57"/>
@@ -2103,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="47">
         <v>1</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="48"/>
       <c r="B7" s="9" t="s">
         <v>8</v>
@@ -2191,7 +2191,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="48"/>
       <c r="B8" s="9" t="s">
         <v>10</v>
@@ -2235,7 +2235,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="48"/>
       <c r="B9" s="9" t="s">
         <v>11</v>
@@ -2279,7 +2279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="23" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="23" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="49"/>
       <c r="B10" s="16" t="s">
         <v>7</v>
@@ -2314,7 +2314,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="47">
         <f>A6+1</f>
         <v>2</v>
@@ -2358,8 +2358,14 @@
         <f>IF(L11=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="9" t="s">
         <v>8</v>
@@ -2402,8 +2408,14 @@
         <f>$C12*L12</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O12" s="5">
+        <v>2</v>
+      </c>
+      <c r="P12" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
       <c r="B13" s="9" t="s">
         <v>10</v>
@@ -2446,8 +2458,14 @@
         <f>$C13*L13</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O13" s="5">
+        <v>3</v>
+      </c>
+      <c r="P13" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
       <c r="B14" s="9" t="s">
         <v>11</v>
@@ -2490,8 +2508,14 @@
         <f>$C14*L14</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="5">
+        <v>4</v>
+      </c>
+      <c r="P14" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="16" t="s">
         <v>7</v>
@@ -2525,8 +2549,14 @@
         <f>SUM(M11:M14)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O15" s="5">
+        <v>5</v>
+      </c>
+      <c r="P15" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="47">
         <f t="shared" ref="A16" si="3">A11+1</f>
         <v>3</v>
@@ -2570,8 +2600,14 @@
         <f>IF(L16=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O16" s="5">
+        <v>6</v>
+      </c>
+      <c r="P16" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="9" t="s">
         <v>8</v>
@@ -2614,8 +2650,14 @@
         <f>$C17*L17</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O17" s="5">
+        <v>7</v>
+      </c>
+      <c r="P17" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
       <c r="B18" s="9" t="s">
         <v>10</v>
@@ -2658,8 +2700,14 @@
         <f>$C18*L18</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O18" s="5">
+        <v>8</v>
+      </c>
+      <c r="P18" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="9" t="s">
         <v>11</v>
@@ -2702,8 +2750,14 @@
         <f>$C19*L19</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="5">
+        <v>9</v>
+      </c>
+      <c r="P19" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="16" t="s">
         <v>7</v>
@@ -2737,8 +2791,14 @@
         <f>SUM(M16:M19)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O20" s="24">
+        <v>10</v>
+      </c>
+      <c r="P20" s="24">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="47">
         <f t="shared" ref="A21" si="6">A16+1</f>
         <v>4</v>
@@ -2782,8 +2842,14 @@
         <f>IF(L21=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O21" s="5">
+        <v>11</v>
+      </c>
+      <c r="P21" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
       <c r="B22" s="9" t="s">
         <v>8</v>
@@ -2829,8 +2895,14 @@
       <c r="N22" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O22" s="5">
+        <v>12</v>
+      </c>
+      <c r="P22" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="9" t="s">
         <v>10</v>
@@ -2873,8 +2945,14 @@
         <f>$C23*L23</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O23" s="5">
+        <v>13</v>
+      </c>
+      <c r="P23" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="9" t="s">
         <v>11</v>
@@ -2917,8 +2995,14 @@
         <f>$C24*L24</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="5">
+        <v>14</v>
+      </c>
+      <c r="P24" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49"/>
       <c r="B25" s="16" t="s">
         <v>7</v>
@@ -2952,8 +3036,14 @@
         <f>SUM(M21:M24)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O25" s="24">
+        <v>15</v>
+      </c>
+      <c r="P25" s="24">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="47">
         <f t="shared" ref="A26" si="9">A21+1</f>
         <v>5</v>
@@ -2997,8 +3087,14 @@
         <f>IF(L26=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O26" s="5">
+        <v>16</v>
+      </c>
+      <c r="P26" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="9" t="s">
         <v>8</v>
@@ -3044,8 +3140,11 @@
       <c r="N27" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P27" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="9" t="s">
         <v>10</v>
@@ -3088,8 +3187,11 @@
         <f>$C28*L28</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P28" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="9" t="s">
         <v>11</v>
@@ -3135,8 +3237,11 @@
       <c r="N29" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="16" t="s">
         <v>7</v>
@@ -3170,8 +3275,11 @@
         <f>SUM(M26:M29)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P30" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="47">
         <f>A26+1</f>
         <v>6</v>
@@ -3215,8 +3323,11 @@
         <f>IF(L31=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P31" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="9" t="s">
         <v>8</v>
@@ -3259,8 +3370,11 @@
         <f>$C32*L32</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P32" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="9" t="s">
         <v>10</v>
@@ -3303,8 +3417,11 @@
         <f>$C33*L33</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P33" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="9" t="s">
         <v>11</v>
@@ -3347,8 +3464,11 @@
         <f>$C34*L34</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49"/>
       <c r="B35" s="16" t="s">
         <v>7</v>
@@ -3382,8 +3502,11 @@
         <f>SUM(M31:M34)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P35" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="47">
         <f t="shared" ref="A36" si="14">A31+1</f>
         <v>7</v>
@@ -3427,8 +3550,11 @@
         <f>IF(L36=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P36" s="24">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="9" t="s">
         <v>8</v>
@@ -3471,8 +3597,11 @@
         <f>$C37*L37</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P37" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="9" t="s">
         <v>10</v>
@@ -3515,8 +3644,11 @@
         <f>$C38*L38</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P38" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="48"/>
       <c r="B39" s="9" t="s">
         <v>11</v>
@@ -3562,8 +3694,11 @@
       <c r="N39" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="49"/>
       <c r="B40" s="16" t="s">
         <v>7</v>
@@ -3597,8 +3732,11 @@
         <f>SUM(M36:M39)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P40" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="47">
         <f>A36+1</f>
         <v>8</v>
@@ -3642,8 +3780,11 @@
         <f>IF(L41=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P41" s="24">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="48"/>
       <c r="B42" s="9" t="s">
         <v>8</v>
@@ -3689,8 +3830,11 @@
       <c r="N42" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P42" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="48"/>
       <c r="B43" s="9" t="s">
         <v>10</v>
@@ -3733,8 +3877,11 @@
         <f>$C43*L43</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P43" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="48"/>
       <c r="B44" s="9" t="s">
         <v>11</v>
@@ -3777,8 +3924,11 @@
         <f>$C44*L44</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
       <c r="B45" s="16" t="s">
         <v>7</v>
@@ -3812,8 +3962,11 @@
         <f>SUM(M41:M44)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P45" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="47">
         <f t="shared" ref="A46" si="19">A41+1</f>
         <v>9</v>
@@ -3857,8 +4010,11 @@
         <f>IF(L46=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P46" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="48"/>
       <c r="B47" s="9" t="s">
         <v>8</v>
@@ -3901,8 +4057,11 @@
         <f>$C47*L47</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P47" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="48"/>
       <c r="B48" s="9" t="s">
         <v>10</v>
@@ -3945,8 +4104,11 @@
         <f>$C48*L48</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P48" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="48"/>
       <c r="B49" s="9" t="s">
         <v>11</v>
@@ -3989,8 +4151,11 @@
         <f>$C49*L49</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P49" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="49"/>
       <c r="B50" s="16" t="s">
         <v>7</v>
@@ -4024,8 +4189,11 @@
         <f>SUM(M46:M49)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P50" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="47">
         <f t="shared" ref="A51" si="22">A46+1</f>
         <v>10</v>
@@ -4069,8 +4237,11 @@
         <f>IF(L51=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P51" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="48"/>
       <c r="B52" s="9" t="s">
         <v>8</v>
@@ -4113,8 +4284,11 @@
         <f>$C52*L52</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P52" s="24">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="48"/>
       <c r="B53" s="9" t="s">
         <v>10</v>
@@ -4157,8 +4331,11 @@
         <f>$C53*L53</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P53" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="48"/>
       <c r="B54" s="9" t="s">
         <v>11</v>
@@ -4201,8 +4378,11 @@
         <f>$C54*L54</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P54" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="49"/>
       <c r="B55" s="16" t="s">
         <v>7</v>
@@ -4236,8 +4416,11 @@
         <f>SUM(M51:M54)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P55" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="47">
         <f t="shared" ref="A56:A76" si="25">A51+1</f>
         <v>11</v>
@@ -4279,8 +4462,11 @@
         <f>IF(L56=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P56" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="48"/>
       <c r="B57" s="9" t="s">
         <v>8</v>
@@ -4323,8 +4509,11 @@
         <f>$C57*L57</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P57" s="24">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="48"/>
       <c r="B58" s="9" t="s">
         <v>10</v>
@@ -4367,8 +4556,11 @@
         <f>$C58*L58</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P58" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="48"/>
       <c r="B59" s="9" t="s">
         <v>11</v>
@@ -4411,8 +4603,11 @@
         <f>$C59*L59</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P59" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49"/>
       <c r="B60" s="16" t="s">
         <v>7</v>
@@ -4446,8 +4641,11 @@
         <f>SUM(M56:M59)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P60" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="47">
         <f t="shared" si="25"/>
         <v>12</v>
@@ -4491,8 +4689,11 @@
         <f>IF(L61=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P61" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="48"/>
       <c r="B62" s="9" t="s">
         <v>8</v>
@@ -4535,8 +4736,11 @@
         <f>$C62*L62</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P62" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="48"/>
       <c r="B63" s="9" t="s">
         <v>10</v>
@@ -4579,8 +4783,11 @@
         <f>$C63*L63</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P63" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="48"/>
       <c r="B64" s="9" t="s">
         <v>11</v>
@@ -4623,8 +4830,11 @@
         <f>$C64*L64</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P64" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="49"/>
       <c r="B65" s="16" t="s">
         <v>7</v>
@@ -4658,8 +4868,11 @@
         <f>SUM(M61:M64)</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P65" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="47">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -4703,8 +4916,11 @@
         <f>IF(L66=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P66" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="48"/>
       <c r="B67" s="9" t="s">
         <v>8</v>
@@ -4747,8 +4963,11 @@
         <f>$C67*L67</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P67" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="48"/>
       <c r="B68" s="9" t="s">
         <v>10</v>
@@ -4791,8 +5010,11 @@
         <f>$C68*L68</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P68" s="24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="48"/>
       <c r="B69" s="9" t="s">
         <v>11</v>
@@ -4835,8 +5057,11 @@
         <f>$C69*L69</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P69" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="49"/>
       <c r="B70" s="16" t="s">
         <v>7</v>
@@ -4870,8 +5095,11 @@
         <f>SUM(M66:M69)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P70" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="47">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -4915,8 +5143,11 @@
         <f>IF(L71=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P71" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="48"/>
       <c r="B72" s="9" t="s">
         <v>8</v>
@@ -4959,8 +5190,11 @@
         <f>$C72*L72</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P72" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="48"/>
       <c r="B73" s="9" t="s">
         <v>10</v>
@@ -5003,8 +5237,11 @@
         <f>$C73*L73</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P73" s="24">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="48"/>
       <c r="B74" s="9" t="s">
         <v>11</v>
@@ -5047,8 +5284,11 @@
         <f>$C74*L74</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P74" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49"/>
       <c r="B75" s="16" t="s">
         <v>7</v>
@@ -5082,8 +5322,11 @@
         <f>SUM(M71:M74)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P75" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="47">
         <f t="shared" si="25"/>
         <v>15</v>
@@ -5127,8 +5370,11 @@
         <f>IF(L76=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P76" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="48"/>
       <c r="B77" s="9" t="s">
         <v>8</v>
@@ -5171,8 +5417,11 @@
         <f>$C77*L77</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P77" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="48"/>
       <c r="B78" s="9" t="s">
         <v>10</v>
@@ -5215,8 +5464,11 @@
         <f>$C78*L78</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P78" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="48"/>
       <c r="B79" s="9" t="s">
         <v>11</v>
@@ -5259,8 +5511,11 @@
         <f>$C79*L79</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P79" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49"/>
       <c r="B80" s="16" t="s">
         <v>7</v>
@@ -5294,8 +5549,11 @@
         <f>SUM(M76:M79)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P80" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="47">
         <f t="shared" ref="A81" si="36">A76+1</f>
         <v>16</v>
@@ -5339,8 +5597,11 @@
         <f>IF(L81=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P81" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="48"/>
       <c r="B82" s="9" t="s">
         <v>8</v>
@@ -5383,8 +5644,11 @@
         <f>$C82*L82</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P82" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="48"/>
       <c r="B83" s="9" t="s">
         <v>10</v>
@@ -5427,8 +5691,11 @@
         <f>$C83*L83</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P83" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="48"/>
       <c r="B84" s="9" t="s">
         <v>11</v>
@@ -5471,8 +5738,11 @@
         <f>$C84*L84</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P84" s="24">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="49"/>
       <c r="B85" s="16" t="s">
         <v>7</v>
@@ -5506,8 +5776,11 @@
         <f>SUM(M81:M84)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P85" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="47">
         <f t="shared" ref="A86" si="39">A81+1</f>
         <v>17</v>
@@ -5551,8 +5824,11 @@
         <f>IF(L86=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P86" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="48"/>
       <c r="B87" s="9" t="s">
         <v>8</v>
@@ -5595,8 +5871,11 @@
         <f>$C87*L87</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P87" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="48"/>
       <c r="B88" s="9" t="s">
         <v>10</v>
@@ -5639,8 +5918,11 @@
         <f>$C88*L88</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P88" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="48"/>
       <c r="B89" s="9" t="s">
         <v>11</v>
@@ -5683,8 +5965,11 @@
         <f>$C89*L89</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P89" s="24">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="49"/>
       <c r="B90" s="16" t="s">
         <v>7</v>
@@ -5718,8 +6003,11 @@
         <f>SUM(M86:M89)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P90" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>26</v>
       </c>
@@ -5727,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>27</v>
       </c>
@@ -6204,10 +6492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31:M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15:P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6225,12 +6513,12 @@
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47" customWidth="1"/>
+    <col min="14" max="14" width="24.5" customWidth="1"/>
     <col min="15" max="15" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:16" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>15</v>
       </c>
@@ -6247,7 +6535,7 @@
       <c r="L2" s="64"/>
       <c r="M2" s="65"/>
     </row>
-    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -6261,7 +6549,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="61" t="s">
         <v>13</v>
       </c>
@@ -6292,7 +6580,7 @@
       </c>
       <c r="M4" s="60"/>
     </row>
-    <row r="5" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="55"/>
       <c r="C5" s="57"/>
@@ -6327,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="61">
         <v>1</v>
       </c>
@@ -6365,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="66"/>
       <c r="B7" s="9" t="s">
         <v>8</v>
@@ -6409,7 +6697,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="66"/>
       <c r="B8" s="9" t="s">
         <v>10</v>
@@ -6453,7 +6741,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="66"/>
       <c r="B9" s="9" t="s">
         <v>11</v>
@@ -6497,7 +6785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="67"/>
       <c r="B10" s="16" t="s">
         <v>7</v>
@@ -6532,7 +6820,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="61">
         <f>A6+1</f>
         <v>2</v>
@@ -6565,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="66"/>
       <c r="B12" s="9" t="s">
         <v>8</v>
@@ -6609,7 +6897,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="66"/>
       <c r="B13" s="9" t="s">
         <v>10</v>
@@ -6653,7 +6941,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="66"/>
       <c r="B14" s="9" t="s">
         <v>11</v>
@@ -6697,7 +6985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="67"/>
       <c r="B15" s="16" t="s">
         <v>7</v>
@@ -6731,8 +7019,14 @@
         <f>SUM(M11:M14)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="61">
         <f t="shared" ref="A16" si="3">A11+1</f>
         <v>3</v>
@@ -6764,8 +7058,14 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A17" s="66"/>
       <c r="B17" s="9" t="s">
         <v>8</v>
@@ -6808,8 +7108,14 @@
         <f>$C17*L17</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="66"/>
       <c r="B18" s="9" t="s">
         <v>10</v>
@@ -6852,8 +7158,14 @@
         <f>$C18*L18</f>
         <v>37.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="66"/>
       <c r="B19" s="9" t="s">
         <v>11</v>
@@ -6896,8 +7208,14 @@
         <f>$C19*L19</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67"/>
       <c r="B20" s="16" t="s">
         <v>7</v>
@@ -6931,8 +7249,14 @@
         <f>SUM(M16:M19)</f>
         <v>112.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O20" s="21">
+        <v>6</v>
+      </c>
+      <c r="P20" s="21">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="61">
         <f t="shared" ref="A21" si="6">A16+1</f>
         <v>4</v>
@@ -6964,8 +7288,14 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="P21">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="66"/>
       <c r="B22" s="9" t="s">
         <v>8</v>
@@ -7008,8 +7338,14 @@
         <f>$C22*L22</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="66"/>
       <c r="B23" s="9" t="s">
         <v>10</v>
@@ -7052,8 +7388,14 @@
         <f>$C23*L23</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="O23">
+        <v>9</v>
+      </c>
+      <c r="P23">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="66"/>
       <c r="B24" s="9" t="s">
         <v>11</v>
@@ -7099,8 +7441,14 @@
       <c r="N24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <v>287.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="67"/>
       <c r="B25" s="16" t="s">
         <v>7</v>
@@ -7134,8 +7482,14 @@
         <f>SUM(M21:M24)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O25" s="21">
+        <v>11</v>
+      </c>
+      <c r="P25" s="21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="61">
         <f t="shared" ref="A26" si="9">A21+1</f>
         <v>5</v>
@@ -7171,8 +7525,14 @@
         <f>IF(L26=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="O26">
+        <v>12</v>
+      </c>
+      <c r="P26">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A27" s="66"/>
       <c r="B27" s="9" t="s">
         <v>8</v>
@@ -7218,8 +7578,14 @@
       <c r="N27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="O27">
+        <v>13</v>
+      </c>
+      <c r="P27">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="66"/>
       <c r="B28" s="9" t="s">
         <v>10</v>
@@ -7265,8 +7631,14 @@
       <c r="N28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="O28">
+        <v>14</v>
+      </c>
+      <c r="P28">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="66"/>
       <c r="B29" s="9" t="s">
         <v>11</v>
@@ -7312,8 +7684,14 @@
       <c r="N29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>15</v>
+      </c>
+      <c r="P29">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="67"/>
       <c r="B30" s="16" t="s">
         <v>7</v>
@@ -7350,8 +7728,14 @@
       <c r="N30" s="21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O30" s="21">
+        <v>16</v>
+      </c>
+      <c r="P30" s="21">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="61">
         <f>A26+1</f>
         <v>6</v>
@@ -7385,8 +7769,11 @@
         <f>IF(L31=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P31">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A32" s="66"/>
       <c r="B32" s="9" t="s">
         <v>8</v>
@@ -7432,8 +7819,11 @@
       <c r="N32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P32">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" s="66"/>
       <c r="B33" s="9" t="s">
         <v>10</v>
@@ -7476,8 +7866,11 @@
         <f>$C33*L33</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P33">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A34" s="66"/>
       <c r="B34" s="9" t="s">
         <v>11</v>
@@ -7520,8 +7913,11 @@
         <f>$C34*L34</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="67"/>
       <c r="B35" s="16" t="s">
         <v>7</v>
@@ -7555,8 +7951,11 @@
         <f>SUM(M31:M34)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="61">
         <f t="shared" ref="A36" si="14">A31+1</f>
         <v>7</v>
@@ -7590,8 +7989,11 @@
         <f>IF(L26=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P36" s="21">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A37" s="66"/>
       <c r="B37" s="9" t="s">
         <v>8</v>
@@ -7637,8 +8039,11 @@
       <c r="N37" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P37">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A38" s="66"/>
       <c r="B38" s="9" t="s">
         <v>10</v>
@@ -7684,8 +8089,11 @@
       <c r="N38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P38">
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A39" s="66"/>
       <c r="B39" s="9" t="s">
         <v>11</v>
@@ -7731,8 +8139,11 @@
       <c r="N39" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="67"/>
       <c r="B40" s="16" t="s">
         <v>7</v>
@@ -7769,8 +8180,11 @@
       <c r="N40" s="21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>287.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="61">
         <f>A36+1</f>
         <v>8</v>
@@ -7802,8 +8216,11 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P41" s="21">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A42" s="66"/>
       <c r="B42" s="9" t="s">
         <v>8</v>
@@ -7846,8 +8263,11 @@
         <f>$C42*L42</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P42">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A43" s="66"/>
       <c r="B43" s="9" t="s">
         <v>10</v>
@@ -7890,8 +8310,11 @@
         <f>$C43*L43</f>
         <v>37.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A44" s="66"/>
       <c r="B44" s="9" t="s">
         <v>11</v>
@@ -7934,8 +8357,11 @@
         <f>$C44*L44</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="67"/>
       <c r="B45" s="16" t="s">
         <v>7</v>
@@ -7969,8 +8395,11 @@
         <f>SUM(M41:M44)</f>
         <v>112.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="61">
         <f t="shared" ref="A46" si="19">A41+1</f>
         <v>9</v>
@@ -8002,8 +8431,11 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P46" s="21">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A47" s="66"/>
       <c r="B47" s="9" t="s">
         <v>8</v>
@@ -8046,8 +8478,11 @@
         <f>$C47*L47</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P47">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A48" s="66"/>
       <c r="B48" s="9" t="s">
         <v>10</v>
@@ -8090,8 +8525,11 @@
         <f>$C48*L48</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P48">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A49" s="66"/>
       <c r="B49" s="9" t="s">
         <v>11</v>
@@ -8134,8 +8572,11 @@
         <f>$C49*L49</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="67"/>
       <c r="B50" s="16" t="s">
         <v>7</v>
@@ -8169,8 +8610,11 @@
         <f>SUM(M46:M49)</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="61">
         <f t="shared" ref="A51" si="20">A46+1</f>
         <v>10</v>
@@ -8202,8 +8646,11 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P51">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A52" s="66"/>
       <c r="B52" s="9" t="s">
         <v>8</v>
@@ -8246,8 +8693,11 @@
         <f>$C52*L52</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P52" s="21">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A53" s="66"/>
       <c r="B53" s="9" t="s">
         <v>10</v>
@@ -8290,8 +8740,11 @@
         <f>$C53*L53</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P53">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A54" s="66"/>
       <c r="B54" s="9" t="s">
         <v>11</v>
@@ -8334,8 +8787,11 @@
         <f>$C54*L54</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P54">
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="67"/>
       <c r="B55" s="16" t="s">
         <v>7</v>
@@ -8369,8 +8825,11 @@
         <f>SUM(M51:M54)</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="P55">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="61">
         <f t="shared" ref="A56:A76" si="21">A51+1</f>
         <v>11</v>
@@ -8402,8 +8861,11 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P56">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A57" s="66"/>
       <c r="B57" s="9" t="s">
         <v>8</v>
@@ -8446,8 +8908,11 @@
         <f>$C57*L57</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P57" s="21">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A58" s="66"/>
       <c r="B58" s="9" t="s">
         <v>10</v>
@@ -8490,8 +8955,11 @@
         <f>$C58*L58</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P58">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A59" s="66"/>
       <c r="B59" s="9" t="s">
         <v>11</v>
@@ -8534,8 +9002,11 @@
         <f>$C59*L59</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P59">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="67"/>
       <c r="B60" s="16" t="s">
         <v>7</v>
@@ -8569,8 +9040,11 @@
         <f>SUM(M56:M59)</f>
         <v>250</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="P60">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="61">
         <f t="shared" si="21"/>
         <v>12</v>
@@ -8602,8 +9076,11 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P61">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A62" s="66"/>
       <c r="B62" s="9" t="s">
         <v>8</v>
@@ -8646,8 +9123,11 @@
         <f>$C62*L62</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P62" s="21">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A63" s="66"/>
       <c r="B63" s="9" t="s">
         <v>10</v>
@@ -8690,8 +9170,11 @@
         <f>$C63*L63</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P63">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A64" s="66"/>
       <c r="B64" s="9" t="s">
         <v>11</v>
@@ -8734,8 +9217,11 @@
         <f>$C64*L64</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P64">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="67"/>
       <c r="B65" s="16" t="s">
         <v>7</v>
@@ -8769,8 +9255,11 @@
         <f>SUM(M61:M64)</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="P65">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="61">
         <f t="shared" si="21"/>
         <v>13</v>
@@ -8802,8 +9291,11 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P66">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A67" s="66"/>
       <c r="B67" s="9" t="s">
         <v>8</v>
@@ -8846,8 +9338,11 @@
         <f>$C67*L67</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P67">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A68" s="66"/>
       <c r="B68" s="9" t="s">
         <v>10</v>
@@ -8890,8 +9385,11 @@
         <f>$C68*L68</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P68" s="21">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A69" s="66"/>
       <c r="B69" s="9" t="s">
         <v>11</v>
@@ -8934,8 +9432,11 @@
         <f>$C69*L69</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P69">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="67"/>
       <c r="B70" s="16" t="s">
         <v>7</v>
@@ -8969,8 +9470,11 @@
         <f>SUM(M66:M69)</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="P70">
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="61">
         <f t="shared" si="21"/>
         <v>14</v>
@@ -9002,8 +9506,11 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P71">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A72" s="66"/>
       <c r="B72" s="9" t="s">
         <v>8</v>
@@ -9046,8 +9553,11 @@
         <f>$C72*L72</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P72">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A73" s="66"/>
       <c r="B73" s="9" t="s">
         <v>10</v>
@@ -9090,8 +9600,11 @@
         <f>$C73*L73</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P73" s="21">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A74" s="66"/>
       <c r="B74" s="9" t="s">
         <v>11</v>
@@ -9134,8 +9647,11 @@
         <f>$C74*L74</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P74">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="67"/>
       <c r="B75" s="16" t="s">
         <v>7</v>
@@ -9169,8 +9685,11 @@
         <f>SUM(M71:M74)</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="P75">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="61">
         <f t="shared" si="21"/>
         <v>15</v>
@@ -9202,8 +9721,11 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A77" s="66"/>
       <c r="B77" s="9" t="s">
         <v>8</v>
@@ -9246,8 +9768,11 @@
         <f>$C77*L77</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P77">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A78" s="66"/>
       <c r="B78" s="9" t="s">
         <v>10</v>
@@ -9290,8 +9815,11 @@
         <f>$C78*L78</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="P78" s="21">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A79" s="66"/>
       <c r="B79" s="9" t="s">
         <v>11</v>
@@ -9334,8 +9862,11 @@
         <f>$C79*L79</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P79">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="67"/>
       <c r="B80" s="16" t="s">
         <v>7</v>
@@ -9369,8 +9900,11 @@
         <f>SUM(M76:M79)</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="P80">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="61">
         <f t="shared" ref="A81" si="22">A76+1</f>
         <v>16</v>
@@ -9402,8 +9936,11 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P81">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A82" s="66"/>
       <c r="B82" s="9" t="s">
         <v>8</v>
@@ -9446,8 +9983,11 @@
         <f>$C82*L82</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P82">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A83" s="66"/>
       <c r="B83" s="9" t="s">
         <v>10</v>
@@ -9490,8 +10030,11 @@
         <f>$C83*L83</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P83">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A84" s="66"/>
       <c r="B84" s="9" t="s">
         <v>11</v>
@@ -9534,8 +10077,11 @@
         <f>$C84*L84</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P84" s="21">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="67"/>
       <c r="B85" s="16" t="s">
         <v>7</v>
@@ -9569,8 +10115,11 @@
         <f>SUM(M81:M84)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="P85">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="61">
         <f t="shared" ref="A86" si="23">A81+1</f>
         <v>17</v>
@@ -9604,8 +10153,11 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P86">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A87" s="66"/>
       <c r="B87" s="9" t="s">
         <v>8</v>
@@ -9651,8 +10203,11 @@
       <c r="N87" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P87">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A88" s="66"/>
       <c r="B88" s="9" t="s">
         <v>10</v>
@@ -9698,8 +10253,11 @@
       <c r="N88" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="P88">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A89" s="66"/>
       <c r="B89" s="9" t="s">
         <v>11</v>
@@ -9742,8 +10300,11 @@
         <f>$C89*L89</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P89" s="21">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="67"/>
       <c r="B90" s="16" t="s">
         <v>7</v>
@@ -9777,21 +10338,40 @@
         <f>SUM(M86:M89)</f>
         <v>112.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P90">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P91">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C92" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P92">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C93" s="5">
         <v>1</v>
+      </c>
+      <c r="P93">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P94" s="21">
+        <v>112.5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/inspection-score-card.xlsx
+++ b/Data/inspection-score-card.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonm/Dropbox (APSU GIS)/Projects (DB)/Dissertation/3DP_Experiments/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505AD540-80EB-DC48-932E-12885FE9E1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8DF1E3-1CDF-AA41-B3C3-C9D3EA6C5DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="32620" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="32620" windowHeight="20540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CR-6 SE" sheetId="2" r:id="rId1"/>
     <sheet name="SWX1" sheetId="1" r:id="rId2"/>
+    <sheet name="CR6 Average" sheetId="3" r:id="rId3"/>
+    <sheet name="SWX1 Averages" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -118,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="27">
   <si>
     <t>weight</t>
   </si>
@@ -180,22 +182,10 @@
     <t>Workable with finishing</t>
   </si>
   <si>
-    <t>Shadowing</t>
-  </si>
-  <si>
     <t>Pimpling</t>
   </si>
   <si>
-    <t>Slight pimpling</t>
-  </si>
-  <si>
     <t>Slight stringing</t>
-  </si>
-  <si>
-    <t>Slight external pimple</t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
   <si>
     <t>Functional</t>
@@ -206,12 +196,18 @@
   <si>
     <t>Functional (0) / Non (1)</t>
   </si>
+  <si>
+    <t>Overall Score</t>
+  </si>
+  <si>
+    <t>TOTALS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -270,6 +266,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -315,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -559,11 +562,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -676,18 +754,12 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,7 +787,19 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -724,12 +808,51 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1990,19 +2113,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:P90"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -2011,67 +2134,63 @@
     <col min="11" max="11" width="8.5" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="5"/>
+    <col min="14" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-    </row>
-    <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+    </row>
+    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="58" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="58" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="58" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="57"/>
+      <c r="M4" s="58"/>
+    </row>
+    <row r="5" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
@@ -2103,12 +2222,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="50">
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="26">
@@ -2147,8 +2266,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
+    <row r="7" spans="1:13" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A7" s="59"/>
       <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
@@ -2191,8 +2310,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:13" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A8" s="59"/>
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
@@ -2235,8 +2354,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A9" s="48"/>
+    <row r="9" spans="1:13" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A9" s="59"/>
       <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
@@ -2279,8 +2398,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="23" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+    <row r="10" spans="1:13" s="23" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="60"/>
       <c r="B10" s="16" t="s">
         <v>7</v>
       </c>
@@ -2314,13 +2433,13 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="47">
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="50">
         <f>A6+1</f>
         <v>2</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="32">
@@ -2358,15 +2477,9 @@
         <f>IF(L11=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="5">
-        <v>1</v>
-      </c>
-      <c r="P11" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+    </row>
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
       <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
@@ -2408,15 +2521,9 @@
         <f>$C12*L12</f>
         <v>200</v>
       </c>
-      <c r="O12" s="5">
-        <v>2</v>
-      </c>
-      <c r="P12" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
+    </row>
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
       <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
@@ -2458,15 +2565,9 @@
         <f>$C13*L13</f>
         <v>150</v>
       </c>
-      <c r="O13" s="5">
-        <v>3</v>
-      </c>
-      <c r="P13" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+    </row>
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="59"/>
       <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
@@ -2508,15 +2609,9 @@
         <f>$C14*L14</f>
         <v>100</v>
       </c>
-      <c r="O14" s="5">
-        <v>4</v>
-      </c>
-      <c r="P14" s="5">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
       <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
@@ -2549,20 +2644,14 @@
         <f>SUM(M11:M14)</f>
         <v>450</v>
       </c>
-      <c r="O15" s="5">
-        <v>5</v>
-      </c>
-      <c r="P15" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="47">
+    </row>
+    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="50">
         <f t="shared" ref="A16" si="3">A11+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="32">
@@ -2600,15 +2689,9 @@
         <f>IF(L16=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="5">
-        <v>6</v>
-      </c>
-      <c r="P16" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
+    </row>
+    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
       <c r="B17" s="9" t="s">
         <v>8</v>
       </c>
@@ -2650,15 +2733,9 @@
         <f>$C17*L17</f>
         <v>200</v>
       </c>
-      <c r="O17" s="5">
-        <v>7</v>
-      </c>
-      <c r="P17" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
+    </row>
+    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
       <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
@@ -2700,15 +2777,9 @@
         <f>$C18*L18</f>
         <v>150</v>
       </c>
-      <c r="O18" s="5">
-        <v>8</v>
-      </c>
-      <c r="P18" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
+    </row>
+    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="59"/>
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
@@ -2750,15 +2821,9 @@
         <f>$C19*L19</f>
         <v>100</v>
       </c>
-      <c r="O19" s="5">
-        <v>9</v>
-      </c>
-      <c r="P19" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+    </row>
+    <row r="20" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
       <c r="B20" s="16" t="s">
         <v>7</v>
       </c>
@@ -2791,20 +2856,14 @@
         <f>SUM(M16:M19)</f>
         <v>450</v>
       </c>
-      <c r="O20" s="24">
-        <v>10</v>
-      </c>
-      <c r="P20" s="24">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="47">
+    </row>
+    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="50">
         <f t="shared" ref="A21" si="6">A16+1</f>
         <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="32">
@@ -2842,15 +2901,9 @@
         <f>IF(L21=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="5">
-        <v>11</v>
-      </c>
-      <c r="P21" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+    </row>
+    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
       <c r="B22" s="9" t="s">
         <v>8</v>
       </c>
@@ -2892,18 +2945,9 @@
         <f>$C22*L22</f>
         <v>200</v>
       </c>
-      <c r="N22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="5">
-        <v>12</v>
-      </c>
-      <c r="P22" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
+    </row>
+    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
       <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
@@ -2945,15 +2989,9 @@
         <f>$C23*L23</f>
         <v>150</v>
       </c>
-      <c r="O23" s="5">
-        <v>13</v>
-      </c>
-      <c r="P23" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+    </row>
+    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
       <c r="B24" s="9" t="s">
         <v>11</v>
       </c>
@@ -2995,15 +3033,9 @@
         <f>$C24*L24</f>
         <v>100</v>
       </c>
-      <c r="O24" s="5">
-        <v>14</v>
-      </c>
-      <c r="P24" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+    </row>
+    <row r="25" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
       <c r="B25" s="16" t="s">
         <v>7</v>
       </c>
@@ -3036,20 +3068,14 @@
         <f>SUM(M21:M24)</f>
         <v>450</v>
       </c>
-      <c r="O25" s="24">
-        <v>15</v>
-      </c>
-      <c r="P25" s="24">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="47">
+    </row>
+    <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="50">
         <f t="shared" ref="A26" si="9">A21+1</f>
         <v>5</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="32">
@@ -3087,15 +3113,9 @@
         <f>IF(L26=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="5">
-        <v>16</v>
-      </c>
-      <c r="P26" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
+    </row>
+    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
       <c r="B27" s="9" t="s">
         <v>8</v>
       </c>
@@ -3137,15 +3157,9 @@
         <f>$C27*L27</f>
         <v>200</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P27" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+    </row>
+    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
       <c r="B28" s="9" t="s">
         <v>10</v>
       </c>
@@ -3187,12 +3201,9 @@
         <f>$C28*L28</f>
         <v>150</v>
       </c>
-      <c r="P28" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
+    </row>
+    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="59"/>
       <c r="B29" s="9" t="s">
         <v>11</v>
       </c>
@@ -3234,15 +3245,9 @@
         <f>$C29*L29</f>
         <v>100</v>
       </c>
-      <c r="N29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+    </row>
+    <row r="30" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
       <c r="B30" s="16" t="s">
         <v>7</v>
       </c>
@@ -3275,17 +3280,14 @@
         <f>SUM(M26:M29)</f>
         <v>450</v>
       </c>
-      <c r="P30" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="47">
+    </row>
+    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="50">
         <f>A26+1</f>
         <v>6</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="32">
@@ -3323,12 +3325,9 @@
         <f>IF(L31=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P31" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+    </row>
+    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="59"/>
       <c r="B32" s="9" t="s">
         <v>8</v>
       </c>
@@ -3370,12 +3369,9 @@
         <f>$C32*L32</f>
         <v>200</v>
       </c>
-      <c r="P32" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
+    </row>
+    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="59"/>
       <c r="B33" s="9" t="s">
         <v>10</v>
       </c>
@@ -3417,12 +3413,9 @@
         <f>$C33*L33</f>
         <v>150</v>
       </c>
-      <c r="P33" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
+    </row>
+    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="59"/>
       <c r="B34" s="9" t="s">
         <v>11</v>
       </c>
@@ -3464,12 +3457,9 @@
         <f>$C34*L34</f>
         <v>100</v>
       </c>
-      <c r="P34" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+    </row>
+    <row r="35" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
       <c r="B35" s="16" t="s">
         <v>7</v>
       </c>
@@ -3502,17 +3492,14 @@
         <f>SUM(M31:M34)</f>
         <v>450</v>
       </c>
-      <c r="P35" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="47">
+    </row>
+    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="50">
         <f t="shared" ref="A36" si="14">A31+1</f>
         <v>7</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="32">
@@ -3550,12 +3537,9 @@
         <f>IF(L36=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P36" s="24">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
+    </row>
+    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="59"/>
       <c r="B37" s="9" t="s">
         <v>8</v>
       </c>
@@ -3597,12 +3581,9 @@
         <f>$C37*L37</f>
         <v>200</v>
       </c>
-      <c r="P37" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
+    </row>
+    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="59"/>
       <c r="B38" s="9" t="s">
         <v>10</v>
       </c>
@@ -3644,12 +3625,9 @@
         <f>$C38*L38</f>
         <v>150</v>
       </c>
-      <c r="P38" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
+    </row>
+    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="59"/>
       <c r="B39" s="9" t="s">
         <v>11</v>
       </c>
@@ -3691,15 +3669,9 @@
         <f>$C39*L39</f>
         <v>100</v>
       </c>
-      <c r="N39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P39" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+    </row>
+    <row r="40" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
       <c r="B40" s="16" t="s">
         <v>7</v>
       </c>
@@ -3732,17 +3704,14 @@
         <f>SUM(M36:M39)</f>
         <v>450</v>
       </c>
-      <c r="P40" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="47">
+    </row>
+    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="50">
         <f>A36+1</f>
         <v>8</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="32">
@@ -3780,12 +3749,9 @@
         <f>IF(L41=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P41" s="24">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="48"/>
+    </row>
+    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="59"/>
       <c r="B42" s="9" t="s">
         <v>8</v>
       </c>
@@ -3827,15 +3793,9 @@
         <f>$C42*L42</f>
         <v>200</v>
       </c>
-      <c r="N42" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P42" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
+    </row>
+    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="59"/>
       <c r="B43" s="9" t="s">
         <v>10</v>
       </c>
@@ -3877,12 +3837,9 @@
         <f>$C43*L43</f>
         <v>150</v>
       </c>
-      <c r="P43" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+    </row>
+    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="59"/>
       <c r="B44" s="9" t="s">
         <v>11</v>
       </c>
@@ -3924,12 +3881,9 @@
         <f>$C44*L44</f>
         <v>100</v>
       </c>
-      <c r="P44" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+    </row>
+    <row r="45" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="60"/>
       <c r="B45" s="16" t="s">
         <v>7</v>
       </c>
@@ -3962,17 +3916,14 @@
         <f>SUM(M41:M44)</f>
         <v>450</v>
       </c>
-      <c r="P45" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="47">
+    </row>
+    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="50">
         <f t="shared" ref="A46" si="19">A41+1</f>
         <v>9</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="32">
@@ -4010,12 +3961,9 @@
         <f>IF(L46=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P46" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="48"/>
+    </row>
+    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="59"/>
       <c r="B47" s="9" t="s">
         <v>8</v>
       </c>
@@ -4057,12 +4005,9 @@
         <f>$C47*L47</f>
         <v>200</v>
       </c>
-      <c r="P47" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
+    </row>
+    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="59"/>
       <c r="B48" s="9" t="s">
         <v>10</v>
       </c>
@@ -4104,12 +4049,9 @@
         <f>$C48*L48</f>
         <v>150</v>
       </c>
-      <c r="P48" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
+    </row>
+    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="59"/>
       <c r="B49" s="9" t="s">
         <v>11</v>
       </c>
@@ -4151,12 +4093,9 @@
         <f>$C49*L49</f>
         <v>100</v>
       </c>
-      <c r="P49" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
+    </row>
+    <row r="50" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
       <c r="B50" s="16" t="s">
         <v>7</v>
       </c>
@@ -4189,17 +4128,14 @@
         <f>SUM(M46:M49)</f>
         <v>450</v>
       </c>
-      <c r="P50" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="47">
+    </row>
+    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="50">
         <f t="shared" ref="A51" si="22">A46+1</f>
         <v>10</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="32">
@@ -4237,12 +4173,9 @@
         <f>IF(L51=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P51" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="48"/>
+    </row>
+    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="59"/>
       <c r="B52" s="9" t="s">
         <v>8</v>
       </c>
@@ -4284,12 +4217,9 @@
         <f>$C52*L52</f>
         <v>200</v>
       </c>
-      <c r="P52" s="24">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
+    </row>
+    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="59"/>
       <c r="B53" s="9" t="s">
         <v>10</v>
       </c>
@@ -4331,12 +4261,9 @@
         <f>$C53*L53</f>
         <v>150</v>
       </c>
-      <c r="P53" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="48"/>
+    </row>
+    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="59"/>
       <c r="B54" s="9" t="s">
         <v>11</v>
       </c>
@@ -4378,12 +4305,9 @@
         <f>$C54*L54</f>
         <v>100</v>
       </c>
-      <c r="P54" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
+    </row>
+    <row r="55" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="60"/>
       <c r="B55" s="16" t="s">
         <v>7</v>
       </c>
@@ -4416,17 +4340,14 @@
         <f>SUM(M51:M54)</f>
         <v>450</v>
       </c>
-      <c r="P55" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="47">
+    </row>
+    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="50">
         <f t="shared" ref="A56:A76" si="25">A51+1</f>
         <v>11</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="32">
@@ -4462,12 +4383,9 @@
         <f>IF(L56=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P56" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="48"/>
+    </row>
+    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="59"/>
       <c r="B57" s="9" t="s">
         <v>8</v>
       </c>
@@ -4509,12 +4427,9 @@
         <f>$C57*L57</f>
         <v>200</v>
       </c>
-      <c r="P57" s="24">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
+    </row>
+    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="59"/>
       <c r="B58" s="9" t="s">
         <v>10</v>
       </c>
@@ -4556,12 +4471,9 @@
         <f>$C58*L58</f>
         <v>150</v>
       </c>
-      <c r="P58" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="48"/>
+    </row>
+    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="59"/>
       <c r="B59" s="9" t="s">
         <v>11</v>
       </c>
@@ -4603,12 +4515,9 @@
         <f>$C59*L59</f>
         <v>100</v>
       </c>
-      <c r="P59" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
+    </row>
+    <row r="60" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="60"/>
       <c r="B60" s="16" t="s">
         <v>7</v>
       </c>
@@ -4641,17 +4550,14 @@
         <f>SUM(M56:M59)</f>
         <v>450</v>
       </c>
-      <c r="P60" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="47">
+    </row>
+    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="50">
         <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="32">
@@ -4689,12 +4595,9 @@
         <f>IF(L61=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P61" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="48"/>
+    </row>
+    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="59"/>
       <c r="B62" s="9" t="s">
         <v>8</v>
       </c>
@@ -4736,12 +4639,9 @@
         <f>$C62*L62</f>
         <v>150</v>
       </c>
-      <c r="P62" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="48"/>
+    </row>
+    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="59"/>
       <c r="B63" s="9" t="s">
         <v>10</v>
       </c>
@@ -4783,12 +4683,9 @@
         <f>$C63*L63</f>
         <v>150</v>
       </c>
-      <c r="P63" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="48"/>
+    </row>
+    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="59"/>
       <c r="B64" s="9" t="s">
         <v>11</v>
       </c>
@@ -4830,12 +4727,9 @@
         <f>$C64*L64</f>
         <v>100</v>
       </c>
-      <c r="P64" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
+    </row>
+    <row r="65" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="60"/>
       <c r="B65" s="16" t="s">
         <v>7</v>
       </c>
@@ -4868,17 +4762,14 @@
         <f>SUM(M61:M64)</f>
         <v>400</v>
       </c>
-      <c r="P65" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="47">
+    </row>
+    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="50">
         <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="32">
@@ -4916,12 +4807,9 @@
         <f>IF(L66=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P66" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="48"/>
+    </row>
+    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="59"/>
       <c r="B67" s="9" t="s">
         <v>8</v>
       </c>
@@ -4963,12 +4851,9 @@
         <f>$C67*L67</f>
         <v>200</v>
       </c>
-      <c r="P67" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="48"/>
+    </row>
+    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="59"/>
       <c r="B68" s="9" t="s">
         <v>10</v>
       </c>
@@ -5010,12 +4895,9 @@
         <f>$C68*L68</f>
         <v>150</v>
       </c>
-      <c r="P68" s="24">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="48"/>
+    </row>
+    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="59"/>
       <c r="B69" s="9" t="s">
         <v>11</v>
       </c>
@@ -5057,12 +4939,9 @@
         <f>$C69*L69</f>
         <v>100</v>
       </c>
-      <c r="P69" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
+    </row>
+    <row r="70" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="60"/>
       <c r="B70" s="16" t="s">
         <v>7</v>
       </c>
@@ -5095,17 +4974,14 @@
         <f>SUM(M66:M69)</f>
         <v>450</v>
       </c>
-      <c r="P70" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="47">
+    </row>
+    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="50">
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="32">
@@ -5143,12 +5019,9 @@
         <f>IF(L71=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P71" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
+    </row>
+    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="59"/>
       <c r="B72" s="9" t="s">
         <v>8</v>
       </c>
@@ -5190,12 +5063,9 @@
         <f>$C72*L72</f>
         <v>200</v>
       </c>
-      <c r="P72" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="48"/>
+    </row>
+    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="59"/>
       <c r="B73" s="9" t="s">
         <v>10</v>
       </c>
@@ -5237,12 +5107,9 @@
         <f>$C73*L73</f>
         <v>150</v>
       </c>
-      <c r="P73" s="24">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="48"/>
+    </row>
+    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="59"/>
       <c r="B74" s="9" t="s">
         <v>11</v>
       </c>
@@ -5284,12 +5151,9 @@
         <f>$C74*L74</f>
         <v>100</v>
       </c>
-      <c r="P74" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
+    </row>
+    <row r="75" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="60"/>
       <c r="B75" s="16" t="s">
         <v>7</v>
       </c>
@@ -5322,17 +5186,14 @@
         <f>SUM(M71:M74)</f>
         <v>450</v>
       </c>
-      <c r="P75" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="47">
+    </row>
+    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="50">
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="32">
@@ -5370,12 +5231,9 @@
         <f>IF(L76=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P76" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="48"/>
+    </row>
+    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="59"/>
       <c r="B77" s="9" t="s">
         <v>8</v>
       </c>
@@ -5417,12 +5275,9 @@
         <f>$C77*L77</f>
         <v>200</v>
       </c>
-      <c r="P77" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="48"/>
+    </row>
+    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="59"/>
       <c r="B78" s="9" t="s">
         <v>10</v>
       </c>
@@ -5464,12 +5319,9 @@
         <f>$C78*L78</f>
         <v>150</v>
       </c>
-      <c r="P78" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="48"/>
+    </row>
+    <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="59"/>
       <c r="B79" s="9" t="s">
         <v>11</v>
       </c>
@@ -5511,12 +5363,9 @@
         <f>$C79*L79</f>
         <v>100</v>
       </c>
-      <c r="P79" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
+    </row>
+    <row r="80" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="60"/>
       <c r="B80" s="16" t="s">
         <v>7</v>
       </c>
@@ -5549,17 +5398,14 @@
         <f>SUM(M76:M79)</f>
         <v>450</v>
       </c>
-      <c r="P80" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="47">
+    </row>
+    <row r="81" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="50">
         <f t="shared" ref="A81" si="36">A76+1</f>
         <v>16</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="32">
@@ -5597,12 +5443,9 @@
         <f>IF(L81=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P81" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="48"/>
+    </row>
+    <row r="82" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="59"/>
       <c r="B82" s="9" t="s">
         <v>8</v>
       </c>
@@ -5644,12 +5487,9 @@
         <f>$C82*L82</f>
         <v>200</v>
       </c>
-      <c r="P82" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="48"/>
+    </row>
+    <row r="83" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="59"/>
       <c r="B83" s="9" t="s">
         <v>10</v>
       </c>
@@ -5691,12 +5531,9 @@
         <f>$C83*L83</f>
         <v>150</v>
       </c>
-      <c r="P83" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="48"/>
+    </row>
+    <row r="84" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="59"/>
       <c r="B84" s="9" t="s">
         <v>11</v>
       </c>
@@ -5738,12 +5575,9 @@
         <f>$C84*L84</f>
         <v>100</v>
       </c>
-      <c r="P84" s="24">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
+    </row>
+    <row r="85" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="60"/>
       <c r="B85" s="16" t="s">
         <v>7</v>
       </c>
@@ -5776,17 +5610,14 @@
         <f>SUM(M81:M84)</f>
         <v>450</v>
       </c>
-      <c r="P85" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="47">
+    </row>
+    <row r="86" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="50">
         <f t="shared" ref="A86" si="39">A81+1</f>
         <v>17</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="32">
@@ -5824,12 +5655,9 @@
         <f>IF(L86=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P86" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="48"/>
+    </row>
+    <row r="87" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="59"/>
       <c r="B87" s="9" t="s">
         <v>8</v>
       </c>
@@ -5871,12 +5699,9 @@
         <f>$C87*L87</f>
         <v>200</v>
       </c>
-      <c r="P87" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="48"/>
+    </row>
+    <row r="88" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="59"/>
       <c r="B88" s="9" t="s">
         <v>10</v>
       </c>
@@ -5918,12 +5743,9 @@
         <f>$C88*L88</f>
         <v>150</v>
       </c>
-      <c r="P88" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="48"/>
+    </row>
+    <row r="89" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="59"/>
       <c r="B89" s="9" t="s">
         <v>11</v>
       </c>
@@ -5965,12 +5787,9 @@
         <f>$C89*L89</f>
         <v>100</v>
       </c>
-      <c r="P89" s="24">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
+    </row>
+    <row r="90" spans="1:13" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="60"/>
       <c r="B90" s="16" t="s">
         <v>7</v>
       </c>
@@ -6003,21 +5822,40 @@
         <f>SUM(M86:M89)</f>
         <v>450</v>
       </c>
-      <c r="P90" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E91" s="5">
+        <f>AVERAGE(E15,E20,E25,E30,E35,E40,E45,E50,E55,E60,E65,E70,E75,E80,E85,E90)</f>
+        <v>434.375</v>
+      </c>
+      <c r="G91" s="5">
+        <f t="shared" ref="F91:M91" si="42">AVERAGE(G15,G20,G25,G30,G35,G40,G45,G50,G55,G60,G65,G70,G75,G80,G85,G90)</f>
+        <v>440.625</v>
+      </c>
+      <c r="I91" s="5">
+        <f t="shared" si="42"/>
+        <v>445.3125</v>
+      </c>
+      <c r="K91" s="5">
+        <f t="shared" si="42"/>
+        <v>443.75</v>
+      </c>
+      <c r="M91" s="5">
+        <f t="shared" si="42"/>
+        <v>446.875</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C92" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C93" s="5">
         <v>1</v>
@@ -6026,15 +5864,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="26">
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A86:A90"/>
     <mergeCell ref="A61:A65"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A15"/>
@@ -6047,11 +5881,15 @@
     <mergeCell ref="A46:A50"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="E10">
     <cfRule type="cellIs" dxfId="84" priority="85" operator="lessThan">
@@ -6492,10 +6330,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15:P94"/>
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6503,7 +6341,7 @@
     <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
@@ -6513,29 +6351,28 @@
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5" customWidth="1"/>
-    <col min="15" max="15" width="8.5" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:16" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+    <row r="1" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
-    </row>
-    <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+    </row>
+    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -6549,41 +6386,41 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="58" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="58" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="58" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="60"/>
-    </row>
-    <row r="5" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="57"/>
+      <c r="M4" s="58"/>
+    </row>
+    <row r="5" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
@@ -6615,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="61">
         <v>1</v>
       </c>
@@ -6653,8 +6490,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A7" s="66"/>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A7" s="62"/>
       <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
@@ -6697,8 +6534,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A8" s="66"/>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A8" s="62"/>
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
@@ -6741,8 +6578,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A9" s="66"/>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A9" s="62"/>
       <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
@@ -6785,8 +6622,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="63"/>
       <c r="B10" s="16" t="s">
         <v>7</v>
       </c>
@@ -6820,7 +6657,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="61">
         <f>A6+1</f>
         <v>2</v>
@@ -6853,8 +6690,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A12" s="66"/>
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A12" s="62"/>
       <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
@@ -6897,8 +6734,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A13" s="62"/>
       <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
@@ -6941,8 +6778,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A14" s="66"/>
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A14" s="62"/>
       <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
@@ -6985,8 +6822,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+    <row r="15" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="63"/>
       <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
@@ -7019,14 +6856,8 @@
         <f>SUM(M11:M14)</f>
         <v>450</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="61">
         <f t="shared" ref="A16" si="3">A11+1</f>
         <v>3</v>
@@ -7058,15 +6889,9 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="O16">
-        <v>2</v>
-      </c>
-      <c r="P16">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A17" s="66"/>
+    </row>
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A17" s="62"/>
       <c r="B17" s="9" t="s">
         <v>8</v>
       </c>
@@ -7108,15 +6933,9 @@
         <f>$C17*L17</f>
         <v>50</v>
       </c>
-      <c r="O17">
-        <v>3</v>
-      </c>
-      <c r="P17">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A18" s="66"/>
+    </row>
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A18" s="62"/>
       <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
@@ -7158,15 +6977,9 @@
         <f>$C18*L18</f>
         <v>37.5</v>
       </c>
-      <c r="O18">
-        <v>4</v>
-      </c>
-      <c r="P18">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A19" s="66"/>
+    </row>
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A19" s="62"/>
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
@@ -7208,15 +7021,9 @@
         <f>$C19*L19</f>
         <v>25</v>
       </c>
-      <c r="O19">
-        <v>5</v>
-      </c>
-      <c r="P19">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
+    </row>
+    <row r="20" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="63"/>
       <c r="B20" s="16" t="s">
         <v>7</v>
       </c>
@@ -7249,14 +7056,8 @@
         <f>SUM(M16:M19)</f>
         <v>112.5</v>
       </c>
-      <c r="O20" s="21">
-        <v>6</v>
-      </c>
-      <c r="P20" s="21">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="61">
         <f t="shared" ref="A21" si="6">A16+1</f>
         <v>4</v>
@@ -7288,15 +7089,9 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="O21">
-        <v>7</v>
-      </c>
-      <c r="P21">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A22" s="66"/>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A22" s="62"/>
       <c r="B22" s="9" t="s">
         <v>8</v>
       </c>
@@ -7338,15 +7133,9 @@
         <f>$C22*L22</f>
         <v>200</v>
       </c>
-      <c r="O22">
-        <v>8</v>
-      </c>
-      <c r="P22">
-        <v>337.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A23" s="66"/>
+    </row>
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A23" s="62"/>
       <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
@@ -7388,15 +7177,9 @@
         <f>$C23*L23</f>
         <v>150</v>
       </c>
-      <c r="O23">
-        <v>9</v>
-      </c>
-      <c r="P23">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A24" s="66"/>
+    </row>
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A24" s="62"/>
       <c r="B24" s="9" t="s">
         <v>11</v>
       </c>
@@ -7439,17 +7222,11 @@
         <v>100</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24">
-        <v>10</v>
-      </c>
-      <c r="P24">
-        <v>287.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="63"/>
       <c r="B25" s="16" t="s">
         <v>7</v>
       </c>
@@ -7482,14 +7259,8 @@
         <f>SUM(M21:M24)</f>
         <v>450</v>
       </c>
-      <c r="O25" s="21">
-        <v>11</v>
-      </c>
-      <c r="P25" s="21">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="61">
         <f t="shared" ref="A26" si="9">A21+1</f>
         <v>5</v>
@@ -7525,15 +7296,9 @@
         <f>IF(L26=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="O26">
-        <v>12</v>
-      </c>
-      <c r="P26">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A27" s="66"/>
+    </row>
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A27" s="62"/>
       <c r="B27" s="9" t="s">
         <v>8</v>
       </c>
@@ -7578,15 +7343,9 @@
       <c r="N27" t="s">
         <v>16</v>
       </c>
-      <c r="O27">
-        <v>13</v>
-      </c>
-      <c r="P27">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A28" s="66"/>
+    </row>
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A28" s="62"/>
       <c r="B28" s="9" t="s">
         <v>10</v>
       </c>
@@ -7631,15 +7390,9 @@
       <c r="N28" t="s">
         <v>17</v>
       </c>
-      <c r="O28">
-        <v>14</v>
-      </c>
-      <c r="P28">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A29" s="66"/>
+    </row>
+    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A29" s="62"/>
       <c r="B29" s="9" t="s">
         <v>11</v>
       </c>
@@ -7684,15 +7437,9 @@
       <c r="N29" t="s">
         <v>18</v>
       </c>
-      <c r="O29">
-        <v>15</v>
-      </c>
-      <c r="P29">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
+    </row>
+    <row r="30" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="63"/>
       <c r="B30" s="16" t="s">
         <v>7</v>
       </c>
@@ -7728,14 +7475,8 @@
       <c r="N30" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="O30" s="21">
-        <v>16</v>
-      </c>
-      <c r="P30" s="21">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="61">
         <f>A26+1</f>
         <v>6</v>
@@ -7769,12 +7510,9 @@
         <f>IF(L31=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P31">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A32" s="66"/>
+    </row>
+    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A32" s="62"/>
       <c r="B32" s="9" t="s">
         <v>8</v>
       </c>
@@ -7817,14 +7555,11 @@
         <v>200</v>
       </c>
       <c r="N32" t="s">
-        <v>23</v>
-      </c>
-      <c r="P32">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A33" s="66"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A33" s="62"/>
       <c r="B33" s="9" t="s">
         <v>10</v>
       </c>
@@ -7866,12 +7601,9 @@
         <f>$C33*L33</f>
         <v>150</v>
       </c>
-      <c r="P33">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A34" s="66"/>
+    </row>
+    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A34" s="62"/>
       <c r="B34" s="9" t="s">
         <v>11</v>
       </c>
@@ -7913,12 +7645,9 @@
         <f>$C34*L34</f>
         <v>100</v>
       </c>
-      <c r="P34">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="67"/>
+    </row>
+    <row r="35" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="63"/>
       <c r="B35" s="16" t="s">
         <v>7</v>
       </c>
@@ -7951,11 +7680,8 @@
         <f>SUM(M31:M34)</f>
         <v>450</v>
       </c>
-      <c r="P35">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="61">
         <f t="shared" ref="A36" si="14">A31+1</f>
         <v>7</v>
@@ -7989,12 +7715,9 @@
         <f>IF(L26=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P36" s="21">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A37" s="66"/>
+    </row>
+    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A37" s="62"/>
       <c r="B37" s="9" t="s">
         <v>8</v>
       </c>
@@ -8039,12 +7762,9 @@
       <c r="N37" t="s">
         <v>16</v>
       </c>
-      <c r="P37">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A38" s="66"/>
+    </row>
+    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A38" s="62"/>
       <c r="B38" s="9" t="s">
         <v>10</v>
       </c>
@@ -8089,12 +7809,9 @@
       <c r="N38" t="s">
         <v>17</v>
       </c>
-      <c r="P38">
-        <v>337.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A39" s="66"/>
+    </row>
+    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A39" s="62"/>
       <c r="B39" s="9" t="s">
         <v>11</v>
       </c>
@@ -8139,12 +7856,9 @@
       <c r="N39" t="s">
         <v>18</v>
       </c>
-      <c r="P39">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
+    </row>
+    <row r="40" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="63"/>
       <c r="B40" s="16" t="s">
         <v>7</v>
       </c>
@@ -8174,17 +7888,13 @@
       </c>
       <c r="L40" s="18"/>
       <c r="M40" s="20">
-        <f>SUM(M36:M39)</f>
-        <v>112.5</v>
+        <v>0</v>
       </c>
       <c r="N40" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="P40">
-        <v>287.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="61">
         <f>A36+1</f>
         <v>8</v>
@@ -8216,12 +7926,9 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P41" s="21">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A42" s="66"/>
+    </row>
+    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A42" s="62"/>
       <c r="B42" s="9" t="s">
         <v>8</v>
       </c>
@@ -8263,12 +7970,9 @@
         <f>$C42*L42</f>
         <v>50</v>
       </c>
-      <c r="P42">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A43" s="66"/>
+    </row>
+    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A43" s="62"/>
       <c r="B43" s="9" t="s">
         <v>10</v>
       </c>
@@ -8310,12 +8014,9 @@
         <f>$C43*L43</f>
         <v>37.5</v>
       </c>
-      <c r="P43">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A44" s="66"/>
+    </row>
+    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A44" s="62"/>
       <c r="B44" s="9" t="s">
         <v>11</v>
       </c>
@@ -8357,12 +8058,9 @@
         <f>$C44*L44</f>
         <v>25</v>
       </c>
-      <c r="P44">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="67"/>
+    </row>
+    <row r="45" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="63"/>
       <c r="B45" s="16" t="s">
         <v>7</v>
       </c>
@@ -8395,11 +8093,8 @@
         <f>SUM(M41:M44)</f>
         <v>112.5</v>
       </c>
-      <c r="P45">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="61">
         <f t="shared" ref="A46" si="19">A41+1</f>
         <v>9</v>
@@ -8431,12 +8126,9 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P46" s="21">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A47" s="66"/>
+    </row>
+    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A47" s="62"/>
       <c r="B47" s="9" t="s">
         <v>8</v>
       </c>
@@ -8478,12 +8170,9 @@
         <f>$C47*L47</f>
         <v>150</v>
       </c>
-      <c r="P47">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A48" s="66"/>
+    </row>
+    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A48" s="62"/>
       <c r="B48" s="9" t="s">
         <v>10</v>
       </c>
@@ -8525,12 +8214,9 @@
         <f>$C48*L48</f>
         <v>150</v>
       </c>
-      <c r="P48">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A49" s="66"/>
+    </row>
+    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A49" s="62"/>
       <c r="B49" s="9" t="s">
         <v>11</v>
       </c>
@@ -8572,12 +8258,9 @@
         <f>$C49*L49</f>
         <v>100</v>
       </c>
-      <c r="P49">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="67"/>
+    </row>
+    <row r="50" spans="1:13" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="63"/>
       <c r="B50" s="16" t="s">
         <v>7</v>
       </c>
@@ -8610,11 +8293,8 @@
         <f>SUM(M46:M49)</f>
         <v>400</v>
       </c>
-      <c r="P50">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="61">
         <f t="shared" ref="A51" si="20">A46+1</f>
         <v>10</v>
@@ -8646,12 +8326,9 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P51">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A52" s="66"/>
+    </row>
+    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A52" s="62"/>
       <c r="B52" s="9" t="s">
         <v>8</v>
       </c>
@@ -8693,12 +8370,9 @@
         <f>$C52*L52</f>
         <v>150</v>
       </c>
-      <c r="P52" s="21">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A53" s="66"/>
+    </row>
+    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A53" s="62"/>
       <c r="B53" s="9" t="s">
         <v>10</v>
       </c>
@@ -8740,12 +8414,9 @@
         <f>$C53*L53</f>
         <v>150</v>
       </c>
-      <c r="P53">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A54" s="66"/>
+    </row>
+    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A54" s="62"/>
       <c r="B54" s="9" t="s">
         <v>11</v>
       </c>
@@ -8787,12 +8458,9 @@
         <f>$C54*L54</f>
         <v>100</v>
       </c>
-      <c r="P54">
-        <v>337.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="67"/>
+    </row>
+    <row r="55" spans="1:13" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="63"/>
       <c r="B55" s="16" t="s">
         <v>7</v>
       </c>
@@ -8825,11 +8493,8 @@
         <f>SUM(M51:M54)</f>
         <v>400</v>
       </c>
-      <c r="P55">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="61">
         <f t="shared" ref="A56:A76" si="21">A51+1</f>
         <v>11</v>
@@ -8861,12 +8526,9 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P56">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A57" s="66"/>
+    </row>
+    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A57" s="62"/>
       <c r="B57" s="9" t="s">
         <v>8</v>
       </c>
@@ -8908,12 +8570,9 @@
         <f>$C57*L57</f>
         <v>100</v>
       </c>
-      <c r="P57" s="21">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A58" s="66"/>
+    </row>
+    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A58" s="62"/>
       <c r="B58" s="9" t="s">
         <v>10</v>
       </c>
@@ -8955,12 +8614,9 @@
         <f>$C58*L58</f>
         <v>75</v>
       </c>
-      <c r="P58">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A59" s="66"/>
+    </row>
+    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A59" s="62"/>
       <c r="B59" s="9" t="s">
         <v>11</v>
       </c>
@@ -9002,12 +8658,9 @@
         <f>$C59*L59</f>
         <v>75</v>
       </c>
-      <c r="P59">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="67"/>
+    </row>
+    <row r="60" spans="1:13" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="63"/>
       <c r="B60" s="16" t="s">
         <v>7</v>
       </c>
@@ -9040,11 +8693,8 @@
         <f>SUM(M56:M59)</f>
         <v>250</v>
       </c>
-      <c r="P60">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="61">
         <f t="shared" si="21"/>
         <v>12</v>
@@ -9076,12 +8726,9 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P61">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A62" s="66"/>
+    </row>
+    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A62" s="62"/>
       <c r="B62" s="9" t="s">
         <v>8</v>
       </c>
@@ -9123,12 +8770,9 @@
         <f>$C62*L62</f>
         <v>100</v>
       </c>
-      <c r="P62" s="21">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A63" s="66"/>
+    </row>
+    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A63" s="62"/>
       <c r="B63" s="9" t="s">
         <v>10</v>
       </c>
@@ -9170,12 +8814,9 @@
         <f>$C63*L63</f>
         <v>75</v>
       </c>
-      <c r="P63">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A64" s="66"/>
+    </row>
+    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A64" s="62"/>
       <c r="B64" s="9" t="s">
         <v>11</v>
       </c>
@@ -9217,12 +8858,9 @@
         <f>$C64*L64</f>
         <v>50</v>
       </c>
-      <c r="P64">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="67"/>
+    </row>
+    <row r="65" spans="1:13" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="63"/>
       <c r="B65" s="16" t="s">
         <v>7</v>
       </c>
@@ -9255,11 +8893,8 @@
         <f>SUM(M61:M64)</f>
         <v>225</v>
       </c>
-      <c r="P65">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="61">
         <f t="shared" si="21"/>
         <v>13</v>
@@ -9291,12 +8926,9 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P66">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A67" s="66"/>
+    </row>
+    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A67" s="62"/>
       <c r="B67" s="9" t="s">
         <v>8</v>
       </c>
@@ -9338,12 +8970,9 @@
         <f>$C67*L67</f>
         <v>150</v>
       </c>
-      <c r="P67">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A68" s="66"/>
+    </row>
+    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A68" s="62"/>
       <c r="B68" s="9" t="s">
         <v>10</v>
       </c>
@@ -9385,12 +9014,9 @@
         <f>$C68*L68</f>
         <v>150</v>
       </c>
-      <c r="P68" s="21">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A69" s="66"/>
+    </row>
+    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A69" s="62"/>
       <c r="B69" s="9" t="s">
         <v>11</v>
       </c>
@@ -9432,12 +9058,9 @@
         <f>$C69*L69</f>
         <v>100</v>
       </c>
-      <c r="P69">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="67"/>
+    </row>
+    <row r="70" spans="1:13" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="63"/>
       <c r="B70" s="16" t="s">
         <v>7</v>
       </c>
@@ -9470,11 +9093,8 @@
         <f>SUM(M66:M69)</f>
         <v>400</v>
       </c>
-      <c r="P70">
-        <v>337.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="61">
         <f t="shared" si="21"/>
         <v>14</v>
@@ -9506,12 +9126,9 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P71">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A72" s="66"/>
+    </row>
+    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A72" s="62"/>
       <c r="B72" s="9" t="s">
         <v>8</v>
       </c>
@@ -9553,12 +9170,9 @@
         <f>$C72*L72</f>
         <v>150</v>
       </c>
-      <c r="P72">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A73" s="66"/>
+    </row>
+    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A73" s="62"/>
       <c r="B73" s="9" t="s">
         <v>10</v>
       </c>
@@ -9600,12 +9214,9 @@
         <f>$C73*L73</f>
         <v>150</v>
       </c>
-      <c r="P73" s="21">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A74" s="66"/>
+    </row>
+    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A74" s="62"/>
       <c r="B74" s="9" t="s">
         <v>11</v>
       </c>
@@ -9647,12 +9258,9 @@
         <f>$C74*L74</f>
         <v>100</v>
       </c>
-      <c r="P74">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="67"/>
+    </row>
+    <row r="75" spans="1:13" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="63"/>
       <c r="B75" s="16" t="s">
         <v>7</v>
       </c>
@@ -9685,11 +9293,8 @@
         <f>SUM(M71:M74)</f>
         <v>400</v>
       </c>
-      <c r="P75">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="61">
         <f t="shared" si="21"/>
         <v>15</v>
@@ -9721,12 +9326,9 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P76">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A77" s="66"/>
+    </row>
+    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A77" s="62"/>
       <c r="B77" s="9" t="s">
         <v>8</v>
       </c>
@@ -9768,12 +9370,9 @@
         <f>$C77*L77</f>
         <v>150</v>
       </c>
-      <c r="P77">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A78" s="66"/>
+    </row>
+    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A78" s="62"/>
       <c r="B78" s="9" t="s">
         <v>10</v>
       </c>
@@ -9815,12 +9414,9 @@
         <f>$C78*L78</f>
         <v>150</v>
       </c>
-      <c r="P78" s="21">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A79" s="66"/>
+    </row>
+    <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.15">
+      <c r="A79" s="62"/>
       <c r="B79" s="9" t="s">
         <v>11</v>
       </c>
@@ -9862,12 +9458,9 @@
         <f>$C79*L79</f>
         <v>100</v>
       </c>
-      <c r="P79">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="67"/>
+    </row>
+    <row r="80" spans="1:13" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="63"/>
       <c r="B80" s="16" t="s">
         <v>7</v>
       </c>
@@ -9900,11 +9493,8 @@
         <f>SUM(M76:M79)</f>
         <v>400</v>
       </c>
-      <c r="P80">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="61">
         <f t="shared" ref="A81" si="22">A76+1</f>
         <v>16</v>
@@ -9936,12 +9526,9 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P81">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A82" s="66"/>
+    </row>
+    <row r="82" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A82" s="62"/>
       <c r="B82" s="9" t="s">
         <v>8</v>
       </c>
@@ -9983,12 +9570,9 @@
         <f>$C82*L82</f>
         <v>200</v>
       </c>
-      <c r="P82">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A83" s="66"/>
+    </row>
+    <row r="83" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A83" s="62"/>
       <c r="B83" s="9" t="s">
         <v>10</v>
       </c>
@@ -10030,12 +9614,9 @@
         <f>$C83*L83</f>
         <v>150</v>
       </c>
-      <c r="P83">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A84" s="66"/>
+    </row>
+    <row r="84" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A84" s="62"/>
       <c r="B84" s="9" t="s">
         <v>11</v>
       </c>
@@ -10077,12 +9658,9 @@
         <f>$C84*L84</f>
         <v>100</v>
       </c>
-      <c r="P84" s="21">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="67"/>
+    </row>
+    <row r="85" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="63"/>
       <c r="B85" s="16" t="s">
         <v>7</v>
       </c>
@@ -10115,11 +9693,8 @@
         <f>SUM(M81:M84)</f>
         <v>450</v>
       </c>
-      <c r="P85">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="61">
         <f t="shared" ref="A86" si="23">A81+1</f>
         <v>17</v>
@@ -10153,12 +9728,9 @@
         <f>IF(D6=$C$93,-450,0)</f>
         <v>0</v>
       </c>
-      <c r="P86">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A87" s="66"/>
+    </row>
+    <row r="87" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A87" s="62"/>
       <c r="B87" s="9" t="s">
         <v>8</v>
       </c>
@@ -10203,12 +9775,9 @@
       <c r="N87" t="s">
         <v>16</v>
       </c>
-      <c r="P87">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A88" s="66"/>
+    </row>
+    <row r="88" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A88" s="62"/>
       <c r="B88" s="9" t="s">
         <v>10</v>
       </c>
@@ -10251,14 +9820,11 @@
         <v>37.5</v>
       </c>
       <c r="N88" t="s">
-        <v>21</v>
-      </c>
-      <c r="P88">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="17" x14ac:dyDescent="0.15">
-      <c r="A89" s="66"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="17" x14ac:dyDescent="0.15">
+      <c r="A89" s="62"/>
       <c r="B89" s="9" t="s">
         <v>11</v>
       </c>
@@ -10300,12 +9866,9 @@
         <f>$C89*L89</f>
         <v>25</v>
       </c>
-      <c r="P89" s="21">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="67"/>
+    </row>
+    <row r="90" spans="1:14" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="63"/>
       <c r="B90" s="16" t="s">
         <v>7</v>
       </c>
@@ -10338,62 +9901,52 @@
         <f>SUM(M86:M89)</f>
         <v>112.5</v>
       </c>
-      <c r="P90">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="P91">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E91" s="5">
+        <f>AVERAGE(E15,E20,E25,E30,E35,E40,E45,E50,E55,E60,E65,E70,E75,E80,E85,E90)</f>
+        <v>300.78125</v>
+      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5">
+        <f t="shared" ref="G91:M91" si="24">AVERAGE(G15,G20,G25,G30,G35,G40,G45,G50,G55,G60,G65,G70,G75,G80,G85,G90)</f>
+        <v>294.53125</v>
+      </c>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5">
+        <f t="shared" si="24"/>
+        <v>292.1875</v>
+      </c>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5">
+        <f t="shared" si="24"/>
+        <v>295.3125</v>
+      </c>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5">
+        <f t="shared" si="24"/>
+        <v>295.3125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C92" s="5">
         <v>0</v>
       </c>
-      <c r="P92">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C93" s="5">
         <v>1</v>
-      </c>
-      <c r="P93">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="P94" s="21">
-        <v>112.5</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="26">
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="A2:M2"/>
@@ -10403,6 +9956,23 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A66:A70"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10414,7 +9984,188 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7795879B-35B3-8543-8324-312C403CFDA7}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="70">
+        <v>1</v>
+      </c>
+      <c r="B1" s="71">
+        <v>2</v>
+      </c>
+      <c r="C1" s="72">
+        <v>3</v>
+      </c>
+      <c r="D1" s="72">
+        <v>4</v>
+      </c>
+      <c r="E1" s="72">
+        <v>5</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75">
+        <v>434.375</v>
+      </c>
+      <c r="B3" s="76">
+        <v>440.625</v>
+      </c>
+      <c r="C3" s="76">
+        <v>445.3125</v>
+      </c>
+      <c r="D3" s="76">
+        <v>443.75</v>
+      </c>
+      <c r="E3" s="76">
+        <v>446.875</v>
+      </c>
+      <c r="F3" s="77">
+        <f>AVERAGE(A3,B3,C3,D3,E3)</f>
+        <v>442.1875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98C6868-23D4-054E-9BC0-AA3E0AAD6FF1}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="70">
+        <v>1</v>
+      </c>
+      <c r="B1" s="71">
+        <v>2</v>
+      </c>
+      <c r="C1" s="79">
+        <v>3</v>
+      </c>
+      <c r="D1" s="79">
+        <v>4</v>
+      </c>
+      <c r="E1" s="79">
+        <v>5</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+    </row>
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="81">
+        <v>300.78125</v>
+      </c>
+      <c r="B3" s="82">
+        <v>294.53125</v>
+      </c>
+      <c r="C3" s="82">
+        <v>292.1875</v>
+      </c>
+      <c r="D3" s="82">
+        <v>295.3125</v>
+      </c>
+      <c r="E3" s="82">
+        <v>295.3125</v>
+      </c>
+      <c r="F3" s="77">
+        <f>AVERAGE(A3,B3,C3,D3,E3)</f>
+        <v>295.625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D39534AF3E24D47AB55289290746C79" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cb8b6edae4b551aa3f81eb86f6f503f8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1ec7ca49c5a651f9724ad06c1ca7c913">
     <xsd:element name="properties">
@@ -10463,16 +10214,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3FFCC15-7568-4AB0-A1C9-7CCD8C5654CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{829F5841-4E2E-4B3B-9EBC-4E96E8465D72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10485,12 +10235,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3FFCC15-7568-4AB0-A1C9-7CCD8C5654CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>